--- a/biology/Médecine/Arthur_K._Shapiro/Arthur_K._Shapiro.xlsx
+++ b/biology/Médecine/Arthur_K._Shapiro/Arthur_K._Shapiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur K Shapiro M.D., né le 11 janvier 1923 à New York et mort le 3 juin 1995 à White Plains (New York), est un psychiatre spécialisé dans l'étude de la maladie de Gilles de La Tourette.   
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur K. Shapiro est né à Brooklyn, New York et vivait à Scarsdale, New York au moment de sa mort[1]. En 1951, il est diplômé du City College of New York, puis il obtient son diplôme de médecine en 1955 à l'Université de Chicago.
-Il devient directeur du laboratoire d'études spéciales de l'Université Cornell, fonction qu'il occupe jusqu'en 1977. Il est également médecin à Mount Sinai School of Medicine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur K. Shapiro est né à Brooklyn, New York et vivait à Scarsdale, New York au moment de sa mort. En 1951, il est diplômé du City College of New York, puis il obtient son diplôme de médecine en 1955 à l'Université de Chicago.
+Il devient directeur du laboratoire d'études spéciales de l'Université Cornell, fonction qu'il occupe jusqu'en 1977. Il est également médecin à Mount Sinai School of Medicine.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Recherches sur le syndrome de La Tourette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shapiro met en évidence que le syndrome de La Tourette était un trouble organique. Le changement dans la façon de diagnostiquer et traiter le syndrome de La Tourette se produisit en 1965, lorsque Shapiro et son épouse Elaine Schlaffer Shapiro traitèrent un patient avec l'halopéridol (Haldol). Ils firent la description du traitement dans un article publié dans le British Journal of Psychiatry [2]après avoir été rejeté par des journaux américains[3].
-Ayant travaillé en 1972 avec l'association du syndrome de Tourette (TSA renommée depuis TAA), les Shapiro avancèrent l'argument que la maladie était d'origine neurologique. En 1978, ils publient un ouvrage sur le syndrome. En 1981, Arthur Shapiro est nommé co-président d'honneur du premier symposium international du syndrome de La Tourette à New York[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shapiro met en évidence que le syndrome de La Tourette était un trouble organique. Le changement dans la façon de diagnostiquer et traiter le syndrome de La Tourette se produisit en 1965, lorsque Shapiro et son épouse Elaine Schlaffer Shapiro traitèrent un patient avec l'halopéridol (Haldol). Ils firent la description du traitement dans un article publié dans le British Journal of Psychiatry après avoir été rejeté par des journaux américains.
+Ayant travaillé en 1972 avec l'association du syndrome de Tourette (TSA renommée depuis TAA), les Shapiro avancèrent l'argument que la maladie était d'origine neurologique. En 1978, ils publient un ouvrage sur le syndrome. En 1981, Arthur Shapiro est nommé co-président d'honneur du premier symposium international du syndrome de La Tourette à New York
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(coll.) Gilles De La Tourette Syndrome. Raven Press Ltd; 2e éd., 1988.
 avec Elaine Shapiro :
